--- a/database/industries/ravankar/shaspa/cashflow/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/cashflow/yearly.xlsx
@@ -192,6 +192,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,6 +221,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -241,6 +261,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -266,6 +301,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -289,6 +339,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -314,6 +379,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -339,6 +419,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -362,6 +457,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -374,25 +484,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/12</t>
         </is>
@@ -409,27 +544,52 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1393-04-21 (5)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1394-04-13 (10)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1395-03-17 (8)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1396-04-10 (8)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1397-03-25 (11)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1398-04-10 (9)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1399-04-15 (9)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1400-04-09 (8)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1401-04-06 (10)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>1401-04-28 (3)</t>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>1401-07-30 (4)</t>
         </is>
       </c>
     </row>
@@ -455,6 +615,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -480,6 +655,21 @@
       <c r="H11" s="14">
         <v/>
       </c>
+      <c r="I11" s="14">
+        <v/>
+      </c>
+      <c r="J11" s="14">
+        <v/>
+      </c>
+      <c r="K11" s="14">
+        <v/>
+      </c>
+      <c r="L11" s="14">
+        <v/>
+      </c>
+      <c r="M11" s="14">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="15" t="inlineStr">
@@ -491,18 +681,33 @@
         <v/>
       </c>
       <c r="D12" s="16">
+        <v>544245</v>
+      </c>
+      <c r="E12" s="16">
+        <v>28976</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2746439</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1209079</v>
+      </c>
+      <c r="H12" s="16">
+        <v>3380087</v>
+      </c>
+      <c r="I12" s="16">
         <v>4542487</v>
       </c>
-      <c r="E12" s="16">
+      <c r="J12" s="16">
         <v>9818464</v>
       </c>
-      <c r="F12" s="16">
+      <c r="K12" s="16">
         <v>4260847</v>
       </c>
-      <c r="G12" s="16">
+      <c r="L12" s="16">
         <v>8417342</v>
       </c>
-      <c r="H12" s="16">
+      <c r="M12" s="16">
         <v>21009709</v>
       </c>
     </row>
@@ -516,18 +721,33 @@
         <v/>
       </c>
       <c r="D13" s="12">
+        <v>-77877</v>
+      </c>
+      <c r="E13" s="12">
+        <v>-299125</v>
+      </c>
+      <c r="F13" s="12">
+        <v>-314611</v>
+      </c>
+      <c r="G13" s="12">
+        <v>-289409</v>
+      </c>
+      <c r="H13" s="12">
+        <v>-1325020</v>
+      </c>
+      <c r="I13" s="12">
         <v>-283527</v>
       </c>
-      <c r="E13" s="12">
+      <c r="J13" s="12">
         <v>-346316</v>
       </c>
-      <c r="F13" s="12">
+      <c r="K13" s="12">
         <v>-456855</v>
       </c>
-      <c r="G13" s="12">
+      <c r="L13" s="12">
         <v>-150000</v>
       </c>
-      <c r="H13" s="12">
+      <c r="M13" s="12">
         <v>-150000</v>
       </c>
     </row>
@@ -541,18 +761,33 @@
         <v/>
       </c>
       <c r="D14" s="18">
+        <v>466368</v>
+      </c>
+      <c r="E14" s="18">
+        <v>-270149</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2431828</v>
+      </c>
+      <c r="G14" s="18">
+        <v>919670</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2055067</v>
+      </c>
+      <c r="I14" s="18">
         <v>4258960</v>
       </c>
-      <c r="E14" s="18">
+      <c r="J14" s="18">
         <v>9472148</v>
       </c>
-      <c r="F14" s="18">
+      <c r="K14" s="18">
         <v>3803992</v>
       </c>
-      <c r="G14" s="18">
+      <c r="L14" s="18">
         <v>8267342</v>
       </c>
-      <c r="H14" s="18">
+      <c r="M14" s="18">
         <v>20859709</v>
       </c>
     </row>
@@ -580,6 +815,21 @@
       <c r="H15" s="14">
         <v/>
       </c>
+      <c r="I15" s="14">
+        <v/>
+      </c>
+      <c r="J15" s="14">
+        <v/>
+      </c>
+      <c r="K15" s="14">
+        <v/>
+      </c>
+      <c r="L15" s="14">
+        <v/>
+      </c>
+      <c r="M15" s="14">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="15" t="inlineStr">
@@ -591,18 +841,33 @@
         <v/>
       </c>
       <c r="D16" s="16">
+        <v>122</v>
+      </c>
+      <c r="E16" s="16">
+        <v>33</v>
+      </c>
+      <c r="F16" s="16">
+        <v>22514</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2841</v>
+      </c>
+      <c r="H16" s="16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="J16" s="16">
         <v>94369</v>
       </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
         <v>23950</v>
       </c>
-      <c r="H16" s="16">
+      <c r="M16" s="16">
         <v>0</v>
       </c>
     </row>
@@ -616,18 +881,33 @@
         <v/>
       </c>
       <c r="D17" s="12">
+        <v>-36281</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-64317</v>
+      </c>
+      <c r="F17" s="12">
+        <v>-99753</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-138510</v>
+      </c>
+      <c r="H17" s="12">
+        <v>-140042</v>
+      </c>
+      <c r="I17" s="12">
         <v>-324377</v>
       </c>
-      <c r="E17" s="12">
+      <c r="J17" s="12">
         <v>-231186</v>
       </c>
-      <c r="F17" s="12">
+      <c r="K17" s="12">
         <v>-421100</v>
       </c>
-      <c r="G17" s="12">
+      <c r="L17" s="12">
         <v>-5711052</v>
       </c>
-      <c r="H17" s="12">
+      <c r="M17" s="12">
         <v>-5834698</v>
       </c>
     </row>
@@ -645,16 +925,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16">
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
         <v>0</v>
       </c>
     </row>
@@ -682,6 +987,21 @@
       <c r="H19" s="12">
         <v>0</v>
       </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="15" t="inlineStr">
@@ -693,18 +1013,33 @@
         <v/>
       </c>
       <c r="D20" s="16">
+        <v>-20275</v>
+      </c>
+      <c r="E20" s="16">
+        <v>-355</v>
+      </c>
+      <c r="F20" s="16">
+        <v>-95</v>
+      </c>
+      <c r="G20" s="16">
+        <v>-2826</v>
+      </c>
+      <c r="H20" s="16">
+        <v>-422</v>
+      </c>
+      <c r="I20" s="16">
         <v>-2569</v>
       </c>
-      <c r="E20" s="16">
+      <c r="J20" s="16">
         <v>-146735</v>
       </c>
-      <c r="F20" s="16">
+      <c r="K20" s="16">
         <v>-253355</v>
       </c>
-      <c r="G20" s="16">
+      <c r="L20" s="16">
         <v>-331960</v>
       </c>
-      <c r="H20" s="16">
+      <c r="M20" s="16">
         <v>-45998</v>
       </c>
     </row>
@@ -717,19 +1052,38 @@
       <c r="C21" s="12">
         <v/>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F21" s="12">
         <v>0</v>
       </c>
       <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
         <v>-640345</v>
       </c>
-      <c r="H21" s="12">
+      <c r="M21" s="12">
         <v>-495000</v>
       </c>
     </row>
@@ -742,11 +1096,15 @@
       <c r="C22" s="16">
         <v/>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F22" s="16">
         <v>0</v>
@@ -755,6 +1113,21 @@
         <v>0</v>
       </c>
       <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
         <v>0</v>
       </c>
     </row>
@@ -768,18 +1141,33 @@
         <v/>
       </c>
       <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>86067</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>97000</v>
+      </c>
+      <c r="I23" s="12">
         <v>98495</v>
       </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
         <v>223</v>
       </c>
-      <c r="G23" s="12">
+      <c r="L23" s="12">
         <v>252</v>
       </c>
-      <c r="H23" s="12">
+      <c r="M23" s="12">
         <v>0</v>
       </c>
     </row>
@@ -793,18 +1181,33 @@
         <v/>
       </c>
       <c r="D24" s="16">
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="E24" s="16">
+        <v>-206000</v>
+      </c>
+      <c r="F24" s="16">
+        <v>-89585</v>
+      </c>
+      <c r="G24" s="16">
+        <v>-92500</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <v>-4685462</v>
       </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
         <v>-30066</v>
       </c>
-      <c r="H24" s="16">
+      <c r="M24" s="16">
         <v>-5211439</v>
       </c>
     </row>
@@ -818,18 +1221,33 @@
         <v/>
       </c>
       <c r="D25" s="12">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="E25" s="12">
-        <v>0</v>
+        <v>5412</v>
       </c>
       <c r="F25" s="12">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
         <v>2558927</v>
       </c>
-      <c r="H25" s="12">
+      <c r="M25" s="12">
         <v>404755</v>
       </c>
     </row>
@@ -843,18 +1261,33 @@
         <v/>
       </c>
       <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>-38</v>
+      </c>
+      <c r="G26" s="16">
+        <v>-184</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
         <v>-88586</v>
       </c>
-      <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
         <v>-3516977</v>
       </c>
-      <c r="G26" s="16">
+      <c r="L26" s="16">
         <v>-807483</v>
       </c>
-      <c r="H26" s="16">
+      <c r="M26" s="16">
         <v>-1468892</v>
       </c>
     </row>
@@ -867,11 +1300,15 @@
       <c r="C27" s="12">
         <v/>
       </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -880,6 +1317,21 @@
         <v>0</v>
       </c>
       <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
         <v>0</v>
       </c>
     </row>
@@ -892,11 +1344,15 @@
       <c r="C28" s="16">
         <v/>
       </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0</v>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F28" s="16">
         <v>0</v>
@@ -905,6 +1361,21 @@
         <v>0</v>
       </c>
       <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
         <v>0</v>
       </c>
     </row>
@@ -922,16 +1393,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
+      <c r="E29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
         <v>0</v>
       </c>
     </row>
@@ -945,18 +1441,33 @@
         <v/>
       </c>
       <c r="D30" s="16">
+        <v>73</v>
+      </c>
+      <c r="E30" s="16">
+        <v>227</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1877</v>
+      </c>
+      <c r="G30" s="16">
+        <v>4089</v>
+      </c>
+      <c r="H30" s="16">
+        <v>1022</v>
+      </c>
+      <c r="I30" s="16">
         <v>576</v>
       </c>
-      <c r="E30" s="16">
+      <c r="J30" s="16">
         <v>514</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
         <v>0</v>
       </c>
     </row>
@@ -970,18 +1481,33 @@
         <v/>
       </c>
       <c r="D31" s="12">
+        <v>27030</v>
+      </c>
+      <c r="E31" s="12">
+        <v>135012</v>
+      </c>
+      <c r="F31" s="12">
+        <v>138563</v>
+      </c>
+      <c r="G31" s="12">
+        <v>55759</v>
+      </c>
+      <c r="H31" s="12">
+        <v>60591</v>
+      </c>
+      <c r="I31" s="12">
         <v>124470</v>
       </c>
-      <c r="E31" s="12">
+      <c r="J31" s="12">
         <v>388267</v>
       </c>
-      <c r="F31" s="12">
+      <c r="K31" s="12">
         <v>451760</v>
       </c>
-      <c r="G31" s="12">
+      <c r="L31" s="12">
         <v>484403</v>
       </c>
-      <c r="H31" s="12">
+      <c r="M31" s="12">
         <v>1421490</v>
       </c>
     </row>
@@ -995,18 +1521,33 @@
         <v/>
       </c>
       <c r="D32" s="18">
+        <v>-35575</v>
+      </c>
+      <c r="E32" s="18">
+        <v>-129988</v>
+      </c>
+      <c r="F32" s="18">
+        <v>59924</v>
+      </c>
+      <c r="G32" s="18">
+        <v>-171331</v>
+      </c>
+      <c r="H32" s="18">
+        <v>28152</v>
+      </c>
+      <c r="I32" s="18">
         <v>-191990</v>
       </c>
-      <c r="E32" s="18">
+      <c r="J32" s="18">
         <v>-4580233</v>
       </c>
-      <c r="F32" s="18">
+      <c r="K32" s="18">
         <v>-3739449</v>
       </c>
-      <c r="G32" s="18">
+      <c r="L32" s="18">
         <v>-4453374</v>
       </c>
-      <c r="H32" s="18">
+      <c r="M32" s="18">
         <v>-11229782</v>
       </c>
     </row>
@@ -1020,18 +1561,33 @@
         <v/>
       </c>
       <c r="D33" s="20">
+        <v>430793</v>
+      </c>
+      <c r="E33" s="20">
+        <v>-400137</v>
+      </c>
+      <c r="F33" s="20">
+        <v>2491752</v>
+      </c>
+      <c r="G33" s="20">
+        <v>748339</v>
+      </c>
+      <c r="H33" s="20">
+        <v>2083219</v>
+      </c>
+      <c r="I33" s="20">
         <v>4066970</v>
       </c>
-      <c r="E33" s="20">
+      <c r="J33" s="20">
         <v>4891915</v>
       </c>
-      <c r="F33" s="20">
+      <c r="K33" s="20">
         <v>64543</v>
       </c>
-      <c r="G33" s="20">
+      <c r="L33" s="20">
         <v>3813968</v>
       </c>
-      <c r="H33" s="20">
+      <c r="M33" s="20">
         <v>9629927</v>
       </c>
     </row>
@@ -1059,6 +1615,21 @@
       <c r="H34" s="14">
         <v/>
       </c>
+      <c r="I34" s="14">
+        <v/>
+      </c>
+      <c r="J34" s="14">
+        <v/>
+      </c>
+      <c r="K34" s="14">
+        <v/>
+      </c>
+      <c r="L34" s="14">
+        <v/>
+      </c>
+      <c r="M34" s="14">
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="B35" s="15" t="inlineStr">
@@ -1084,6 +1655,21 @@
       <c r="H35" s="16">
         <v>0</v>
       </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" s="11" t="inlineStr">
@@ -1119,6 +1705,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="B37" s="15" t="inlineStr">
@@ -1129,11 +1740,15 @@
       <c r="C37" s="16">
         <v/>
       </c>
-      <c r="D37" s="16">
-        <v>0</v>
-      </c>
-      <c r="E37" s="16">
-        <v>0</v>
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F37" s="16">
         <v>0</v>
@@ -1142,6 +1757,21 @@
         <v>0</v>
       </c>
       <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1154,11 +1784,15 @@
       <c r="C38" s="12">
         <v/>
       </c>
-      <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0</v>
+      <c r="D38" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F38" s="12">
         <v>0</v>
@@ -1167,6 +1801,21 @@
         <v>0</v>
       </c>
       <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1180,18 +1829,33 @@
         <v/>
       </c>
       <c r="D39" s="16">
+        <v>1983756</v>
+      </c>
+      <c r="E39" s="16">
+        <v>2977974</v>
+      </c>
+      <c r="F39" s="16">
+        <v>3842494</v>
+      </c>
+      <c r="G39" s="16">
+        <v>7025879</v>
+      </c>
+      <c r="H39" s="16">
+        <v>5614889</v>
+      </c>
+      <c r="I39" s="16">
         <v>1200000</v>
       </c>
-      <c r="E39" s="16">
+      <c r="J39" s="16">
         <v>200000</v>
       </c>
-      <c r="F39" s="16">
-        <v>0</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
+      <c r="K39" s="16">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1205,18 +1869,33 @@
         <v/>
       </c>
       <c r="D40" s="12">
+        <v>-1075426</v>
+      </c>
+      <c r="E40" s="12">
+        <v>-2692963</v>
+      </c>
+      <c r="F40" s="12">
+        <v>-4307798</v>
+      </c>
+      <c r="G40" s="12">
+        <v>-5288364</v>
+      </c>
+      <c r="H40" s="12">
+        <v>-7097912</v>
+      </c>
+      <c r="I40" s="12">
         <v>-3375845</v>
       </c>
-      <c r="E40" s="12">
+      <c r="J40" s="12">
         <v>-380000</v>
       </c>
-      <c r="F40" s="12">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-      <c r="H40" s="12">
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1230,18 +1909,33 @@
         <v/>
       </c>
       <c r="D41" s="16">
+        <v>-113120</v>
+      </c>
+      <c r="E41" s="16">
+        <v>-377846</v>
+      </c>
+      <c r="F41" s="16">
+        <v>-577785</v>
+      </c>
+      <c r="G41" s="16">
+        <v>-787998</v>
+      </c>
+      <c r="H41" s="16">
+        <v>-505690</v>
+      </c>
+      <c r="I41" s="16">
         <v>-188593</v>
       </c>
-      <c r="E41" s="16">
+      <c r="J41" s="16">
         <v>-18695</v>
       </c>
-      <c r="F41" s="16">
-        <v>0</v>
-      </c>
-      <c r="G41" s="16">
-        <v>0</v>
-      </c>
-      <c r="H41" s="16">
+      <c r="K41" s="16">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16">
+        <v>0</v>
+      </c>
+      <c r="M41" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1259,16 +1953,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-      <c r="H42" s="12">
+      <c r="E42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
+      <c r="M42" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1286,16 +2005,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E43" s="16">
-        <v>0</v>
-      </c>
-      <c r="F43" s="16">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16">
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
+      <c r="E43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" s="16">
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1313,16 +2057,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E44" s="12">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="12">
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+      <c r="M44" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1340,16 +2109,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E45" s="16">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16">
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
+      <c r="E45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1367,16 +2161,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E46" s="12">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12">
-        <v>0</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="12">
+      <c r="E46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1394,16 +2213,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E47" s="16">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16">
-        <v>0</v>
-      </c>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
-      <c r="H47" s="16">
+      <c r="E47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1421,16 +2265,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E48" s="12">
-        <v>0</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-      <c r="H48" s="12">
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1448,16 +2317,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E49" s="16">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
+      <c r="E49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1471,18 +2365,33 @@
         <v/>
       </c>
       <c r="D50" s="12">
+        <v>-393000</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <v>-1532371</v>
+      </c>
+      <c r="G50" s="12">
+        <v>-2057486</v>
+      </c>
+      <c r="H50" s="12">
+        <v>-61304</v>
+      </c>
+      <c r="I50" s="12">
         <v>-1298185</v>
       </c>
-      <c r="E50" s="12">
+      <c r="J50" s="12">
         <v>-1528263</v>
       </c>
-      <c r="F50" s="12">
+      <c r="K50" s="12">
         <v>-2855416</v>
       </c>
-      <c r="G50" s="12">
+      <c r="L50" s="12">
         <v>-1568155</v>
       </c>
-      <c r="H50" s="12">
+      <c r="M50" s="12">
         <v>-7476689</v>
       </c>
     </row>
@@ -1496,18 +2405,33 @@
         <v/>
       </c>
       <c r="D51" s="18">
+        <v>402210</v>
+      </c>
+      <c r="E51" s="18">
+        <v>-92835</v>
+      </c>
+      <c r="F51" s="18">
+        <v>-2575460</v>
+      </c>
+      <c r="G51" s="18">
+        <v>-1107969</v>
+      </c>
+      <c r="H51" s="18">
+        <v>-2050017</v>
+      </c>
+      <c r="I51" s="18">
         <v>-3662623</v>
       </c>
-      <c r="E51" s="18">
+      <c r="J51" s="18">
         <v>-1726958</v>
       </c>
-      <c r="F51" s="18">
+      <c r="K51" s="18">
         <v>-2855416</v>
       </c>
-      <c r="G51" s="18">
+      <c r="L51" s="18">
         <v>-1568155</v>
       </c>
-      <c r="H51" s="18">
+      <c r="M51" s="18">
         <v>-7476689</v>
       </c>
     </row>
@@ -1521,18 +2445,33 @@
         <v/>
       </c>
       <c r="D52" s="20">
+        <v>833003</v>
+      </c>
+      <c r="E52" s="20">
+        <v>-492972</v>
+      </c>
+      <c r="F52" s="20">
+        <v>-83708</v>
+      </c>
+      <c r="G52" s="20">
+        <v>-359630</v>
+      </c>
+      <c r="H52" s="20">
+        <v>33202</v>
+      </c>
+      <c r="I52" s="20">
         <v>404347</v>
       </c>
-      <c r="E52" s="20">
+      <c r="J52" s="20">
         <v>3164957</v>
       </c>
-      <c r="F52" s="20">
+      <c r="K52" s="20">
         <v>-2790873</v>
       </c>
-      <c r="G52" s="20">
+      <c r="L52" s="20">
         <v>2245813</v>
       </c>
-      <c r="H52" s="20">
+      <c r="M52" s="20">
         <v>2153238</v>
       </c>
     </row>
@@ -1546,18 +2485,33 @@
         <v/>
       </c>
       <c r="D53" s="16">
+        <v>288150</v>
+      </c>
+      <c r="E53" s="16">
+        <v>1121153</v>
+      </c>
+      <c r="F53" s="16">
+        <v>655037</v>
+      </c>
+      <c r="G53" s="16">
+        <v>560699</v>
+      </c>
+      <c r="H53" s="16">
+        <v>201833</v>
+      </c>
+      <c r="I53" s="16">
         <v>235932</v>
       </c>
-      <c r="E53" s="16">
+      <c r="J53" s="16">
         <v>644154</v>
       </c>
-      <c r="F53" s="16">
+      <c r="K53" s="16">
         <v>3840478</v>
       </c>
-      <c r="G53" s="16">
+      <c r="L53" s="16">
         <v>1088399</v>
       </c>
-      <c r="H53" s="16">
+      <c r="M53" s="16">
         <v>3509499</v>
       </c>
     </row>
@@ -1571,18 +2525,33 @@
         <v/>
       </c>
       <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <v>26856</v>
+      </c>
+      <c r="F54" s="12">
+        <v>-10630</v>
+      </c>
+      <c r="G54" s="12">
+        <v>764</v>
+      </c>
+      <c r="H54" s="12">
+        <v>897</v>
+      </c>
+      <c r="I54" s="12">
         <v>3875</v>
       </c>
-      <c r="E54" s="12">
+      <c r="J54" s="12">
         <v>31367</v>
       </c>
-      <c r="F54" s="12">
+      <c r="K54" s="12">
         <v>38794</v>
       </c>
-      <c r="G54" s="12">
+      <c r="L54" s="12">
         <v>175287</v>
       </c>
-      <c r="H54" s="12">
+      <c r="M54" s="12">
         <v>5708</v>
       </c>
     </row>
@@ -1596,18 +2565,33 @@
         <v/>
       </c>
       <c r="D55" s="18">
+        <v>1121153</v>
+      </c>
+      <c r="E55" s="18">
+        <v>655037</v>
+      </c>
+      <c r="F55" s="18">
+        <v>560699</v>
+      </c>
+      <c r="G55" s="18">
+        <v>201833</v>
+      </c>
+      <c r="H55" s="18">
+        <v>235932</v>
+      </c>
+      <c r="I55" s="18">
         <v>644154</v>
       </c>
-      <c r="E55" s="18">
+      <c r="J55" s="18">
         <v>3840478</v>
       </c>
-      <c r="F55" s="18">
+      <c r="K55" s="18">
         <v>1088399</v>
       </c>
-      <c r="G55" s="18">
+      <c r="L55" s="18">
         <v>3509499</v>
       </c>
-      <c r="H55" s="18">
+      <c r="M55" s="18">
         <v>5668445</v>
       </c>
     </row>
@@ -1621,18 +2605,33 @@
         <v/>
       </c>
       <c r="D56" s="12">
+        <v>163475</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>194351</v>
+      </c>
+      <c r="H56" s="12">
+        <v>717151</v>
+      </c>
+      <c r="I56" s="12">
         <v>236756</v>
       </c>
-      <c r="E56" s="12">
+      <c r="J56" s="12">
         <v>17750</v>
       </c>
-      <c r="F56" s="12">
+      <c r="K56" s="12">
         <v>398400</v>
       </c>
-      <c r="G56" s="12">
+      <c r="L56" s="12">
         <v>1234929</v>
       </c>
-      <c r="H56" s="12">
+      <c r="M56" s="12">
         <v>4328133</v>
       </c>
     </row>
@@ -1656,6 +2655,21 @@
         <v/>
       </c>
       <c r="H57" s="2">
+        <v/>
+      </c>
+      <c r="I57" s="2">
+        <v/>
+      </c>
+      <c r="J57" s="2">
+        <v/>
+      </c>
+      <c r="K57" s="2">
+        <v/>
+      </c>
+      <c r="L57" s="2">
+        <v/>
+      </c>
+      <c r="M57" s="2">
         <v/>
       </c>
     </row>

--- a/database/industries/ravankar/shaspa/cashflow/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/cashflow/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\shaspa\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66A7860-CAFC-45F1-8218-DB9B0D17A07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B539640-3CC2-4910-BF8E-75B7180B752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شسپا-نفت سپاهان</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-04-21 (5)</t>
-  </si>
-  <si>
-    <t>1394-04-13 (10)</t>
-  </si>
-  <si>
-    <t>1395-03-17 (8)</t>
-  </si>
-  <si>
-    <t>1396-04-10 (8)</t>
-  </si>
-  <si>
-    <t>1397-03-25 (11)</t>
-  </si>
-  <si>
     <t>1398-04-10 (9)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-04-06 (10)</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-11-04 (6)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,18 +692,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -741,13 +711,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,13 +722,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -773,13 +733,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -787,13 +742,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -803,13 +753,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -819,13 +764,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -833,13 +773,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -859,59 +794,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -919,15 +824,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -935,123 +835,73 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>544245</v>
+        <v>4542487</v>
       </c>
       <c r="E12" s="15">
-        <v>28976</v>
+        <v>9818464</v>
       </c>
       <c r="F12" s="15">
-        <v>2746439</v>
+        <v>4260847</v>
       </c>
       <c r="G12" s="15">
-        <v>1209079</v>
+        <v>8417342</v>
       </c>
       <c r="H12" s="15">
-        <v>3380087</v>
-      </c>
-      <c r="I12" s="15">
-        <v>4542487</v>
-      </c>
-      <c r="J12" s="15">
-        <v>9818464</v>
-      </c>
-      <c r="K12" s="15">
-        <v>4260847</v>
-      </c>
-      <c r="L12" s="15">
-        <v>8417342</v>
-      </c>
-      <c r="M12" s="15">
         <v>21009709</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-77877</v>
+        <v>-283527</v>
       </c>
       <c r="E13" s="11">
-        <v>-299125</v>
+        <v>-346316</v>
       </c>
       <c r="F13" s="11">
-        <v>-314611</v>
+        <v>-456855</v>
       </c>
       <c r="G13" s="11">
-        <v>-289409</v>
+        <v>-150000</v>
       </c>
       <c r="H13" s="11">
-        <v>-1325020</v>
-      </c>
-      <c r="I13" s="11">
-        <v>-283527</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-346316</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-456855</v>
-      </c>
-      <c r="L13" s="11">
         <v>-150000</v>
       </c>
-      <c r="M13" s="11">
-        <v>-150000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>466368</v>
+        <v>4258960</v>
       </c>
       <c r="E14" s="17">
-        <v>-270149</v>
+        <v>9472148</v>
       </c>
       <c r="F14" s="17">
-        <v>2431828</v>
+        <v>3803992</v>
       </c>
       <c r="G14" s="17">
-        <v>919670</v>
+        <v>8267342</v>
       </c>
       <c r="H14" s="17">
-        <v>2055067</v>
-      </c>
-      <c r="I14" s="17">
-        <v>4258960</v>
-      </c>
-      <c r="J14" s="17">
-        <v>9472148</v>
-      </c>
-      <c r="K14" s="17">
-        <v>3803992</v>
-      </c>
-      <c r="L14" s="17">
-        <v>8267342</v>
-      </c>
-      <c r="M14" s="17">
         <v>20859709</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1059,123 +909,73 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>33</v>
+        <v>94369</v>
       </c>
       <c r="F16" s="15">
-        <v>22514</v>
+        <v>0</v>
       </c>
       <c r="G16" s="15">
-        <v>2841</v>
+        <v>23950</v>
       </c>
       <c r="H16" s="15">
-        <v>3</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1</v>
-      </c>
-      <c r="J16" s="15">
-        <v>94369</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
-        <v>23950</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-36281</v>
+        <v>-324377</v>
       </c>
       <c r="E17" s="11">
-        <v>-64317</v>
+        <v>-231186</v>
       </c>
       <c r="F17" s="11">
-        <v>-99753</v>
+        <v>-421100</v>
       </c>
       <c r="G17" s="11">
-        <v>-138510</v>
+        <v>-5711052</v>
       </c>
       <c r="H17" s="11">
-        <v>-140042</v>
-      </c>
-      <c r="I17" s="11">
-        <v>-324377</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-231186</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-421100</v>
-      </c>
-      <c r="L17" s="11">
-        <v>-5711052</v>
-      </c>
-      <c r="M17" s="11">
         <v>-5834698</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1193,104 +993,59 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>-20275</v>
+        <v>-2569</v>
       </c>
       <c r="E20" s="15">
-        <v>-355</v>
+        <v>-146735</v>
       </c>
       <c r="F20" s="15">
-        <v>-95</v>
+        <v>-253355</v>
       </c>
       <c r="G20" s="15">
-        <v>-2826</v>
+        <v>-331960</v>
       </c>
       <c r="H20" s="15">
-        <v>-422</v>
-      </c>
-      <c r="I20" s="15">
-        <v>-2569</v>
-      </c>
-      <c r="J20" s="15">
-        <v>-146735</v>
-      </c>
-      <c r="K20" s="15">
-        <v>-253355</v>
-      </c>
-      <c r="L20" s="15">
-        <v>-331960</v>
-      </c>
-      <c r="M20" s="15">
         <v>-45998</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>34</v>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>-640345</v>
       </c>
       <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>-640345</v>
-      </c>
-      <c r="M21" s="11">
         <v>-495000</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>34</v>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
@@ -1301,212 +1056,122 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>0</v>
+        <v>98495</v>
       </c>
       <c r="E23" s="11">
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>86067</v>
+        <v>223</v>
       </c>
       <c r="G23" s="11">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H23" s="11">
-        <v>97000</v>
-      </c>
-      <c r="I23" s="11">
-        <v>98495</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>223</v>
-      </c>
-      <c r="L23" s="11">
-        <v>252</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="15">
-        <v>-206000</v>
+        <v>-4685462</v>
       </c>
       <c r="F24" s="15">
-        <v>-89585</v>
+        <v>0</v>
       </c>
       <c r="G24" s="15">
-        <v>-92500</v>
+        <v>-30066</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
-        <v>-4685462</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
-        <v>-30066</v>
-      </c>
-      <c r="M24" s="15">
         <v>-5211439</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>2756</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>5412</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>2558927</v>
       </c>
       <c r="H25" s="11">
-        <v>10000</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>2558927</v>
-      </c>
-      <c r="M25" s="11">
         <v>404755</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>-88586</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>-38</v>
+        <v>-3516977</v>
       </c>
       <c r="G26" s="15">
-        <v>-184</v>
+        <v>-807483</v>
       </c>
       <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15">
-        <v>-88586</v>
-      </c>
-      <c r="J26" s="15">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
-        <v>-3516977</v>
-      </c>
-      <c r="L26" s="15">
-        <v>-807483</v>
-      </c>
-      <c r="M26" s="15">
         <v>-1468892</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>34</v>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
@@ -1517,205 +1182,115 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-      <c r="I28" s="15">
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>73</v>
+        <v>576</v>
       </c>
       <c r="E30" s="15">
-        <v>227</v>
+        <v>514</v>
       </c>
       <c r="F30" s="15">
-        <v>1877</v>
+        <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>4089</v>
+        <v>0</v>
       </c>
       <c r="H30" s="15">
-        <v>1022</v>
-      </c>
-      <c r="I30" s="15">
-        <v>576</v>
-      </c>
-      <c r="J30" s="15">
-        <v>514</v>
-      </c>
-      <c r="K30" s="15">
-        <v>0</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>27030</v>
+        <v>124470</v>
       </c>
       <c r="E31" s="11">
-        <v>135012</v>
+        <v>388267</v>
       </c>
       <c r="F31" s="11">
-        <v>138563</v>
+        <v>451760</v>
       </c>
       <c r="G31" s="11">
-        <v>55759</v>
+        <v>484403</v>
       </c>
       <c r="H31" s="11">
-        <v>60591</v>
-      </c>
-      <c r="I31" s="11">
-        <v>124470</v>
-      </c>
-      <c r="J31" s="11">
-        <v>388267</v>
-      </c>
-      <c r="K31" s="11">
-        <v>451760</v>
-      </c>
-      <c r="L31" s="11">
-        <v>484403</v>
-      </c>
-      <c r="M31" s="11">
         <v>1421490</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-35575</v>
+        <v>-191990</v>
       </c>
       <c r="E32" s="17">
-        <v>-129988</v>
+        <v>-4580233</v>
       </c>
       <c r="F32" s="17">
-        <v>59924</v>
+        <v>-3739449</v>
       </c>
       <c r="G32" s="17">
-        <v>-171331</v>
+        <v>-4453374</v>
       </c>
       <c r="H32" s="17">
-        <v>28152</v>
-      </c>
-      <c r="I32" s="17">
-        <v>-191990</v>
-      </c>
-      <c r="J32" s="17">
-        <v>-4580233</v>
-      </c>
-      <c r="K32" s="17">
-        <v>-3739449</v>
-      </c>
-      <c r="L32" s="17">
-        <v>-4453374</v>
-      </c>
-      <c r="M32" s="17">
         <v>-11229782</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>430793</v>
+        <v>4066970</v>
       </c>
       <c r="E33" s="19">
-        <v>-400137</v>
+        <v>4891915</v>
       </c>
       <c r="F33" s="19">
-        <v>2491752</v>
+        <v>64543</v>
       </c>
       <c r="G33" s="19">
-        <v>748339</v>
+        <v>3813968</v>
       </c>
       <c r="H33" s="19">
-        <v>2083219</v>
-      </c>
-      <c r="I33" s="19">
-        <v>4066970</v>
-      </c>
-      <c r="J33" s="19">
-        <v>4891915</v>
-      </c>
-      <c r="K33" s="19">
-        <v>64543</v>
-      </c>
-      <c r="L33" s="19">
-        <v>3813968</v>
-      </c>
-      <c r="M33" s="19">
         <v>9629927</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1723,15 +1298,10 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1749,68 +1319,38 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>34</v>
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
@@ -1821,32 +1361,17 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>34</v>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -1857,671 +1382,386 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>1983756</v>
+        <v>1200000</v>
       </c>
       <c r="E39" s="15">
-        <v>2977974</v>
+        <v>200000</v>
       </c>
       <c r="F39" s="15">
-        <v>3842494</v>
+        <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>7025879</v>
+        <v>0</v>
       </c>
       <c r="H39" s="15">
-        <v>5614889</v>
-      </c>
-      <c r="I39" s="15">
-        <v>1200000</v>
-      </c>
-      <c r="J39" s="15">
-        <v>200000</v>
-      </c>
-      <c r="K39" s="15">
-        <v>0</v>
-      </c>
-      <c r="L39" s="15">
-        <v>0</v>
-      </c>
-      <c r="M39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-1075426</v>
+        <v>-3375845</v>
       </c>
       <c r="E40" s="11">
-        <v>-2692963</v>
+        <v>-380000</v>
       </c>
       <c r="F40" s="11">
-        <v>-4307798</v>
+        <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>-5288364</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>-7097912</v>
-      </c>
-      <c r="I40" s="11">
-        <v>-3375845</v>
-      </c>
-      <c r="J40" s="11">
-        <v>-380000</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-113120</v>
+        <v>-188593</v>
       </c>
       <c r="E41" s="15">
-        <v>-377846</v>
+        <v>-18695</v>
       </c>
       <c r="F41" s="15">
-        <v>-577785</v>
+        <v>0</v>
       </c>
       <c r="G41" s="15">
-        <v>-787998</v>
+        <v>0</v>
       </c>
       <c r="H41" s="15">
-        <v>-505690</v>
-      </c>
-      <c r="I41" s="15">
-        <v>-188593</v>
-      </c>
-      <c r="J41" s="15">
-        <v>-18695</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="15">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-393000</v>
+        <v>-1298185</v>
       </c>
       <c r="E50" s="11">
-        <v>0</v>
+        <v>-1528263</v>
       </c>
       <c r="F50" s="11">
-        <v>-1532371</v>
+        <v>-2855416</v>
       </c>
       <c r="G50" s="11">
-        <v>-2057486</v>
+        <v>-1568155</v>
       </c>
       <c r="H50" s="11">
-        <v>-61304</v>
-      </c>
-      <c r="I50" s="11">
-        <v>-1298185</v>
-      </c>
-      <c r="J50" s="11">
-        <v>-1528263</v>
-      </c>
-      <c r="K50" s="11">
-        <v>-2855416</v>
-      </c>
-      <c r="L50" s="11">
-        <v>-1568155</v>
-      </c>
-      <c r="M50" s="11">
         <v>-7476689</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>402210</v>
+        <v>-3662623</v>
       </c>
       <c r="E51" s="17">
-        <v>-92835</v>
+        <v>-1726958</v>
       </c>
       <c r="F51" s="17">
-        <v>-2575460</v>
+        <v>-2855416</v>
       </c>
       <c r="G51" s="17">
-        <v>-1107969</v>
+        <v>-1568155</v>
       </c>
       <c r="H51" s="17">
-        <v>-2050017</v>
-      </c>
-      <c r="I51" s="17">
-        <v>-3662623</v>
-      </c>
-      <c r="J51" s="17">
-        <v>-1726958</v>
-      </c>
-      <c r="K51" s="17">
-        <v>-2855416</v>
-      </c>
-      <c r="L51" s="17">
-        <v>-1568155</v>
-      </c>
-      <c r="M51" s="17">
         <v>-7476689</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>833003</v>
+        <v>404347</v>
       </c>
       <c r="E52" s="19">
-        <v>-492972</v>
+        <v>3164957</v>
       </c>
       <c r="F52" s="19">
-        <v>-83708</v>
+        <v>-2790873</v>
       </c>
       <c r="G52" s="19">
-        <v>-359630</v>
+        <v>2245813</v>
       </c>
       <c r="H52" s="19">
-        <v>33202</v>
-      </c>
-      <c r="I52" s="19">
-        <v>404347</v>
-      </c>
-      <c r="J52" s="19">
-        <v>3164957</v>
-      </c>
-      <c r="K52" s="19">
-        <v>-2790873</v>
-      </c>
-      <c r="L52" s="19">
-        <v>2245813</v>
-      </c>
-      <c r="M52" s="19">
         <v>2153238</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>288150</v>
+        <v>235932</v>
       </c>
       <c r="E53" s="15">
-        <v>1121153</v>
+        <v>644154</v>
       </c>
       <c r="F53" s="15">
-        <v>655037</v>
+        <v>3840478</v>
       </c>
       <c r="G53" s="15">
-        <v>560699</v>
+        <v>1088399</v>
       </c>
       <c r="H53" s="15">
-        <v>201833</v>
-      </c>
-      <c r="I53" s="15">
-        <v>235932</v>
-      </c>
-      <c r="J53" s="15">
-        <v>644154</v>
-      </c>
-      <c r="K53" s="15">
-        <v>3840478</v>
-      </c>
-      <c r="L53" s="15">
-        <v>1088399</v>
-      </c>
-      <c r="M53" s="15">
         <v>3509499</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>3875</v>
       </c>
       <c r="E54" s="11">
-        <v>26856</v>
+        <v>31367</v>
       </c>
       <c r="F54" s="11">
-        <v>-10630</v>
+        <v>38794</v>
       </c>
       <c r="G54" s="11">
-        <v>764</v>
+        <v>175287</v>
       </c>
       <c r="H54" s="11">
-        <v>897</v>
-      </c>
-      <c r="I54" s="11">
-        <v>3875</v>
-      </c>
-      <c r="J54" s="11">
-        <v>31367</v>
-      </c>
-      <c r="K54" s="11">
-        <v>38794</v>
-      </c>
-      <c r="L54" s="11">
-        <v>175287</v>
-      </c>
-      <c r="M54" s="11">
         <v>5708</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>1121153</v>
+        <v>644154</v>
       </c>
       <c r="E55" s="17">
-        <v>655037</v>
+        <v>3840478</v>
       </c>
       <c r="F55" s="17">
-        <v>560699</v>
+        <v>1088399</v>
       </c>
       <c r="G55" s="17">
-        <v>201833</v>
+        <v>3509499</v>
       </c>
       <c r="H55" s="17">
-        <v>235932</v>
-      </c>
-      <c r="I55" s="17">
-        <v>644154</v>
-      </c>
-      <c r="J55" s="17">
-        <v>3840478</v>
-      </c>
-      <c r="K55" s="17">
-        <v>1088399</v>
-      </c>
-      <c r="L55" s="17">
-        <v>3509499</v>
-      </c>
-      <c r="M55" s="17">
         <v>5668445</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>163475</v>
+        <v>236756</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>17750</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>398400</v>
       </c>
       <c r="G56" s="11">
-        <v>194351</v>
+        <v>1234929</v>
       </c>
       <c r="H56" s="11">
-        <v>717151</v>
-      </c>
-      <c r="I56" s="11">
-        <v>236756</v>
-      </c>
-      <c r="J56" s="11">
-        <v>17750</v>
-      </c>
-      <c r="K56" s="11">
-        <v>398400</v>
-      </c>
-      <c r="L56" s="11">
-        <v>1234929</v>
-      </c>
-      <c r="M56" s="11">
-        <v>4328133</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1959510</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2529,11 +1769,6 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ravankar/shaspa/cashflow/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/cashflow/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B539640-3CC2-4910-BF8E-75B7180B752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B0A556-F2A0-4037-9F74-D3495DD1A351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -696,14 +696,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,7 +712,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -743,7 +743,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -774,7 +774,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,7 +825,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -857,7 +857,7 @@
         <v>21009709</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -878,7 +878,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
@@ -899,7 +899,7 @@
         <v>20859709</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -952,7 +952,7 @@
         <v>-5834698</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>-45998</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>-495000</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>-5211439</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>404755</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>-1468892</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>1421490</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>38</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>-11229782</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>9629927</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>40</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>-7476689</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>57</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>-7476689</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>58</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>2153238</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>3509499</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>5708</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>61</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>5668445</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1959510</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/ravankar/shaspa/cashflow/yearly.xlsx
+++ b/database/industries/ravankar/shaspa/cashflow/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\ravankar\shaspa\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B0A556-F2A0-4037-9F74-D3495DD1A351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39BA5DA-64B5-49D9-B318-4E46E6539B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="4530" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>شسپا-نفت سپاهان</t>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1392/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1393/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1394/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1395/12</t>
+  </si>
+  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -52,9 +64,24 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1394-04-13 (10)</t>
+  </si>
+  <si>
+    <t>1395-03-17 (8)</t>
+  </si>
+  <si>
+    <t>1396-04-10 (8)</t>
+  </si>
+  <si>
+    <t>1397-03-25 (11)</t>
+  </si>
+  <si>
     <t>1398-04-10 (9)</t>
   </si>
   <si>
@@ -67,7 +94,10 @@
     <t>1401-04-06 (10)</t>
   </si>
   <si>
-    <t>1401-11-04 (6)</t>
+    <t>1402-04-06 (8)</t>
+  </si>
+  <si>
+    <t>1402-09-15 (5)</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -692,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +730,10 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="8" width="29" customWidth="1"/>
+    <col min="4" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -711,8 +741,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,8 +757,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -733,8 +773,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -742,8 +787,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -753,8 +803,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,8 +819,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -773,8 +833,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -794,29 +859,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -824,10 +919,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -835,73 +935,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>28976</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2746439</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1209079</v>
+      </c>
+      <c r="G12" s="15">
+        <v>3380087</v>
+      </c>
+      <c r="H12" s="15">
         <v>4542487</v>
       </c>
-      <c r="E12" s="15">
+      <c r="I12" s="15">
         <v>9818464</v>
       </c>
-      <c r="F12" s="15">
+      <c r="J12" s="15">
         <v>4260847</v>
       </c>
-      <c r="G12" s="15">
+      <c r="K12" s="15">
         <v>8417342</v>
       </c>
-      <c r="H12" s="15">
+      <c r="L12" s="15">
         <v>21009709</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M12" s="15">
+        <v>32859783</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-299125</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-314611</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-289409</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-1325020</v>
+      </c>
+      <c r="H13" s="11">
         <v>-283527</v>
       </c>
-      <c r="E13" s="11">
+      <c r="I13" s="11">
         <v>-346316</v>
       </c>
-      <c r="F13" s="11">
+      <c r="J13" s="11">
         <v>-456855</v>
       </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
         <v>-150000</v>
       </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>-150000</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>-270149</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2431828</v>
+      </c>
+      <c r="F14" s="17">
+        <v>919670</v>
+      </c>
+      <c r="G14" s="17">
+        <v>2055067</v>
+      </c>
+      <c r="H14" s="17">
         <v>4258960</v>
       </c>
-      <c r="E14" s="17">
+      <c r="I14" s="17">
         <v>9472148</v>
       </c>
-      <c r="F14" s="17">
+      <c r="J14" s="17">
         <v>3803992</v>
       </c>
-      <c r="G14" s="17">
+      <c r="K14" s="17">
         <v>8267342</v>
       </c>
-      <c r="H14" s="17">
+      <c r="L14" s="17">
         <v>20859709</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="17">
+        <v>32859783</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -909,73 +1059,123 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15">
+        <v>22514</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2841</v>
+      </c>
+      <c r="G16" s="15">
+        <v>3</v>
+      </c>
+      <c r="H16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="15">
+      <c r="I16" s="15">
         <v>94369</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
         <v>23950</v>
       </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>30308</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-64317</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-99753</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-138510</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-140042</v>
+      </c>
+      <c r="H17" s="11">
         <v>-324377</v>
       </c>
-      <c r="E17" s="11">
+      <c r="I17" s="11">
         <v>-231186</v>
       </c>
-      <c r="F17" s="11">
+      <c r="J17" s="11">
         <v>-421100</v>
       </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11">
         <v>-5711052</v>
       </c>
-      <c r="H17" s="11">
+      <c r="L17" s="11">
         <v>-5834698</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M17" s="11">
+        <v>-10966985</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -993,35 +1193,65 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>-355</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-95</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-2826</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-422</v>
+      </c>
+      <c r="H20" s="15">
         <v>-2569</v>
       </c>
-      <c r="E20" s="15">
+      <c r="I20" s="15">
         <v>-146735</v>
       </c>
-      <c r="F20" s="15">
+      <c r="J20" s="15">
         <v>-253355</v>
       </c>
-      <c r="G20" s="15">
+      <c r="K20" s="15">
         <v>-331960</v>
       </c>
-      <c r="H20" s="15">
+      <c r="L20" s="15">
         <v>-45998</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="15">
+        <v>-141095</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>0</v>
+      <c r="D21" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
@@ -1030,19 +1260,34 @@
         <v>0</v>
       </c>
       <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
         <v>-640345</v>
       </c>
-      <c r="H21" s="11">
+      <c r="L21" s="11">
         <v>-495000</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M21" s="11">
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15">
-        <v>0</v>
+      <c r="D22" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="E22" s="15">
         <v>0</v>
@@ -1056,98 +1301,173 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>86067</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>97000</v>
+      </c>
+      <c r="H23" s="11">
         <v>98495</v>
       </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
         <v>223</v>
       </c>
-      <c r="G23" s="11">
+      <c r="K23" s="11">
         <v>252</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>11298006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>-206000</v>
       </c>
       <c r="E24" s="15">
+        <v>-89585</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-92500</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
         <v>-4685462</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
         <v>-30066</v>
       </c>
-      <c r="H24" s="15">
+      <c r="L24" s="15">
         <v>-5211439</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M24" s="15">
+        <v>-6139020</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>5412</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
       </c>
       <c r="G25" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
         <v>2558927</v>
       </c>
-      <c r="H25" s="11">
+      <c r="L25" s="11">
         <v>404755</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="11">
+        <v>4867188</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-38</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-184</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
         <v>-88586</v>
       </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
         <v>-3516977</v>
       </c>
-      <c r="G26" s="15">
+      <c r="K26" s="15">
         <v>-807483</v>
       </c>
-      <c r="H26" s="15">
+      <c r="L26" s="15">
         <v>-1468892</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M26" s="15">
+        <v>-2311374</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="11">
-        <v>0</v>
+      <c r="D27" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E27" s="11">
         <v>0</v>
@@ -1161,14 +1481,29 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="15">
-        <v>0</v>
+      <c r="D28" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
@@ -1182,115 +1517,205 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>227</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1877</v>
+      </c>
+      <c r="F30" s="15">
+        <v>4089</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1022</v>
+      </c>
+      <c r="H30" s="15">
         <v>576</v>
       </c>
-      <c r="E30" s="15">
+      <c r="I30" s="15">
         <v>514</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>135012</v>
+      </c>
+      <c r="E31" s="11">
+        <v>138563</v>
+      </c>
+      <c r="F31" s="11">
+        <v>55759</v>
+      </c>
+      <c r="G31" s="11">
+        <v>60591</v>
+      </c>
+      <c r="H31" s="11">
         <v>124470</v>
       </c>
-      <c r="E31" s="11">
+      <c r="I31" s="11">
         <v>388267</v>
       </c>
-      <c r="F31" s="11">
+      <c r="J31" s="11">
         <v>451760</v>
       </c>
-      <c r="G31" s="11">
+      <c r="K31" s="11">
         <v>484403</v>
       </c>
-      <c r="H31" s="11">
+      <c r="L31" s="11">
         <v>1421490</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M31" s="11">
+        <v>1333793</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-129988</v>
+      </c>
+      <c r="E32" s="17">
+        <v>59924</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-171331</v>
+      </c>
+      <c r="G32" s="17">
+        <v>28152</v>
+      </c>
+      <c r="H32" s="17">
         <v>-191990</v>
       </c>
-      <c r="E32" s="17">
+      <c r="I32" s="17">
         <v>-4580233</v>
       </c>
-      <c r="F32" s="17">
+      <c r="J32" s="17">
         <v>-3739449</v>
       </c>
-      <c r="G32" s="17">
+      <c r="K32" s="17">
         <v>-4453374</v>
       </c>
-      <c r="H32" s="17">
+      <c r="L32" s="17">
         <v>-11229782</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M32" s="17">
+        <v>-2329179</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-400137</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2491752</v>
+      </c>
+      <c r="F33" s="19">
+        <v>748339</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2083219</v>
+      </c>
+      <c r="H33" s="19">
         <v>4066970</v>
       </c>
-      <c r="E33" s="19">
+      <c r="I33" s="19">
         <v>4891915</v>
       </c>
-      <c r="F33" s="19">
+      <c r="J33" s="19">
         <v>64543</v>
       </c>
-      <c r="G33" s="19">
+      <c r="K33" s="19">
         <v>3813968</v>
       </c>
-      <c r="H33" s="19">
+      <c r="L33" s="19">
         <v>9629927</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M33" s="19">
+        <v>30530604</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1298,10 +1723,15 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1319,35 +1749,65 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>71051</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="15">
-        <v>0</v>
+      <c r="D37" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
@@ -1361,14 +1821,29 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
@@ -1382,386 +1857,671 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>-674938</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>2977974</v>
+      </c>
+      <c r="E39" s="15">
+        <v>3842494</v>
+      </c>
+      <c r="F39" s="15">
+        <v>7025879</v>
+      </c>
+      <c r="G39" s="15">
+        <v>5614889</v>
+      </c>
+      <c r="H39" s="15">
         <v>1200000</v>
       </c>
-      <c r="E39" s="15">
+      <c r="I39" s="15">
         <v>200000</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-2692963</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-4307798</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-5288364</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-7097912</v>
+      </c>
+      <c r="H40" s="11">
         <v>-3375845</v>
       </c>
-      <c r="E40" s="11">
+      <c r="I40" s="11">
         <v>-380000</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-377846</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-577785</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-787998</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-505690</v>
+      </c>
+      <c r="H41" s="15">
         <v>-188593</v>
       </c>
-      <c r="E41" s="15">
+      <c r="I41" s="15">
         <v>-18695</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>-161557</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="15">
-        <v>0</v>
-      </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-1532371</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-2057486</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-61304</v>
+      </c>
+      <c r="H50" s="11">
         <v>-1298185</v>
       </c>
-      <c r="E50" s="11">
+      <c r="I50" s="11">
         <v>-1528263</v>
       </c>
-      <c r="F50" s="11">
+      <c r="J50" s="11">
         <v>-2855416</v>
       </c>
-      <c r="G50" s="11">
+      <c r="K50" s="11">
         <v>-1568155</v>
       </c>
-      <c r="H50" s="11">
+      <c r="L50" s="11">
         <v>-7476689</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M50" s="11">
+        <v>-37522202</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-92835</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-2575460</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-1107969</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-2050017</v>
+      </c>
+      <c r="H51" s="17">
         <v>-3662623</v>
       </c>
-      <c r="E51" s="17">
+      <c r="I51" s="17">
         <v>-1726958</v>
       </c>
-      <c r="F51" s="17">
+      <c r="J51" s="17">
         <v>-2855416</v>
       </c>
-      <c r="G51" s="17">
+      <c r="K51" s="17">
         <v>-1568155</v>
       </c>
-      <c r="H51" s="17">
+      <c r="L51" s="17">
         <v>-7476689</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M51" s="17">
+        <v>-30787646</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-492972</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-83708</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-359630</v>
+      </c>
+      <c r="G52" s="19">
+        <v>33202</v>
+      </c>
+      <c r="H52" s="19">
         <v>404347</v>
       </c>
-      <c r="E52" s="19">
+      <c r="I52" s="19">
         <v>3164957</v>
       </c>
-      <c r="F52" s="19">
+      <c r="J52" s="19">
         <v>-2790873</v>
       </c>
-      <c r="G52" s="19">
+      <c r="K52" s="19">
         <v>2245813</v>
       </c>
-      <c r="H52" s="19">
+      <c r="L52" s="19">
         <v>2153238</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M52" s="19">
+        <v>-257042</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>1121153</v>
+      </c>
+      <c r="E53" s="15">
+        <v>655037</v>
+      </c>
+      <c r="F53" s="15">
+        <v>560699</v>
+      </c>
+      <c r="G53" s="15">
+        <v>201833</v>
+      </c>
+      <c r="H53" s="15">
         <v>235932</v>
       </c>
-      <c r="E53" s="15">
+      <c r="I53" s="15">
         <v>644154</v>
       </c>
-      <c r="F53" s="15">
+      <c r="J53" s="15">
         <v>3840478</v>
       </c>
-      <c r="G53" s="15">
+      <c r="K53" s="15">
         <v>1088399</v>
       </c>
-      <c r="H53" s="15">
+      <c r="L53" s="15">
         <v>3509499</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M53" s="15">
+        <v>5668445</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>26856</v>
+      </c>
+      <c r="E54" s="11">
+        <v>-10630</v>
+      </c>
+      <c r="F54" s="11">
+        <v>764</v>
+      </c>
+      <c r="G54" s="11">
+        <v>897</v>
+      </c>
+      <c r="H54" s="11">
         <v>3875</v>
       </c>
-      <c r="E54" s="11">
+      <c r="I54" s="11">
         <v>31367</v>
       </c>
-      <c r="F54" s="11">
+      <c r="J54" s="11">
         <v>38794</v>
       </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11">
         <v>175287</v>
       </c>
-      <c r="H54" s="11">
+      <c r="L54" s="11">
         <v>5708</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M54" s="11">
+        <v>189583</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>655037</v>
+      </c>
+      <c r="E55" s="17">
+        <v>560699</v>
+      </c>
+      <c r="F55" s="17">
+        <v>201833</v>
+      </c>
+      <c r="G55" s="17">
+        <v>235932</v>
+      </c>
+      <c r="H55" s="17">
         <v>644154</v>
       </c>
-      <c r="E55" s="17">
+      <c r="I55" s="17">
         <v>3840478</v>
       </c>
-      <c r="F55" s="17">
+      <c r="J55" s="17">
         <v>1088399</v>
       </c>
-      <c r="G55" s="17">
+      <c r="K55" s="17">
         <v>3509499</v>
       </c>
-      <c r="H55" s="17">
+      <c r="L55" s="17">
         <v>5668445</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M55" s="17">
+        <v>5600986</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>194351</v>
+      </c>
+      <c r="G56" s="11">
+        <v>717151</v>
+      </c>
+      <c r="H56" s="11">
         <v>236756</v>
       </c>
-      <c r="E56" s="11">
+      <c r="I56" s="11">
         <v>17750</v>
       </c>
-      <c r="F56" s="11">
+      <c r="J56" s="11">
         <v>398400</v>
       </c>
-      <c r="G56" s="11">
+      <c r="K56" s="11">
         <v>1234929</v>
       </c>
-      <c r="H56" s="11">
-        <v>1959510</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L56" s="11">
+        <v>48308443</v>
+      </c>
+      <c r="M56" s="11">
+        <v>6708259</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1769,6 +2529,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
